--- a/routers/users.xlsx
+++ b/routers/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kapil\Documents\prs\Pre-Placement-Portal-Backend\routers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54D4FF5C-3654-491D-9894-615DE2A061F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD54C41-F61C-4C26-BA36-1A72A52B559F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4FAAA4EA-EEEF-4602-BD01-5555E0CBE835}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Email_Id</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>student</t>
+  </si>
+  <si>
+    <t>Mobile_No</t>
   </si>
 </sst>
 </file>
@@ -404,22 +407,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC70011-FBA4-4643-A2D0-0A348A94066A}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="3" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,15 +432,18 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
